--- a/static/saved/entropy_WASPAS_full_ranking.xlsx
+++ b/static/saved/entropy_WASPAS_full_ranking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>model_name</t>
   </si>
@@ -22,388 +22,388 @@
     <t>score</t>
   </si>
   <si>
+    <t>Galaxy S10+ SM-G975 DS 1TB Black (SM-G975FCKH)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 1TB Ceramic White (SM-G975FCWH)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Midnight Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Metallic Copper</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 512GB Black (SM-G975FCKG)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 512GB White (SM-G975FCWG)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Ocean Blue (SM-N960FZBH)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G9750 DS 1TB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N986B 12/512GB Mystic Black (SM-N986BZKH)</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 12/512GB Black (SM-F900FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N970F 8/256GB Black (SM-N970FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N975F 12/256GB Black (SM-N975FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 SM-N980F 8/256GB Mystic Green (SM-N980FZGG)</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N9860 12/256GB Mystic Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra SM-N985F 8/256GB Mystic Bronze (SM-N985FZNG)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 8/256GB Blue (SM-G780FZBH)</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 5G N9810 8/256GB Mystic Gray</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N9750 12/256GB Aura Glow</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 Ultra 5G SM-N986B 12/256GB Mystic Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra 5G SM-G9880 12/256GB Cosmic Gray</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10+ SM-N975F 12/512GB Aura Black</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G973 DS 512GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 5G SM-F907B 12/512GB Silver</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 8/512GB Lavender Purple</t>
+  </si>
+  <si>
+    <t>Galaxy Z Flip SM-F700 8/256GB Mirror Purple (SM-F700FZPD)</t>
+  </si>
+  <si>
+    <t>Galaxy M31 6/128GB Black (SM-M315FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 5G SM-F907B 12/512GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy M51 6/128GB Black (SM-M515FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy M31s 6/128GB Blue (SM-M317FZBN)</t>
+  </si>
+  <si>
+    <t>Galaxy Note20 5G SM-N981B 8/256GB Mystic Bronze</t>
+  </si>
+  <si>
+    <t>Galaxy A71 2020 6/128GB Black (SM-A715FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy A51 2020 6/128GB Blue (SM-A515FZBW)</t>
+  </si>
+  <si>
+    <t>Galaxy Note10 Lite SM-N770F Dual 6/128GB Black (SM-N770FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A31 4/128GB Black (SM-A315FZKV)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N9700 8/256GB White</t>
+  </si>
+  <si>
+    <t>Galaxy S10 Lite SM-G770 6/128GB Black (SM-G770FZKG)</t>
+  </si>
+  <si>
+    <t>Galaxy Z Flip 5G SM-F707 8/256GB Mystic Bronze</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G973 DS 128GB Green (SM-G973FZGD)</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 256GB Black (SM-G965FZKH)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G975 DS 128GB Black (SM-G975FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 6/128GB Blue (SM-G780FZBD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G7810 8/128GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy Note 10 SM-N9700 8/256GB Black (SM-N9700ZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 6/128GB Metallic Silver (SM-A515FMSW)</t>
+  </si>
+  <si>
+    <t>Galaxy S10e SM-G970 DS 128GB Black (SM-G970FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 SM-G980 8/128GB Grey (SM-G980FZAD)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 Lite SM-G770 8/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 4/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G9860 12/128GB Cosmic Black</t>
+  </si>
+  <si>
+    <t>Galaxy A71 2020 SM-A715F 8/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ LTE SM-G985 Dual 8/128GB Black (SM-G985FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Note10 Lite SM-N770F Dual 8/128GB Black (SM-N770FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G986F-DS 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note 9 N960 6/128GB Metallic Copper</t>
+  </si>
+  <si>
+    <t>Galaxy S20 5G SM-G9810 12/128GB Cloud Pink</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G781B 6/128GB Cloud Red</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 6/256GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra SM-G988 128GB Grey (SM-G988BZAD)</t>
+  </si>
+  <si>
+    <t>Galaxy M21 4/64GB Black (SM-M215FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE SM-G780F 8/128GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 4/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A51 SM-A515F 2020 8/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A31 4/64GB Black (SM-A315FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S10 SM-G9730 DS 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 6/128GB Blue (SM-A505FZBQ)</t>
+  </si>
+  <si>
+    <t>Galaxy S20 Ultra 5G SM-G988B 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A51 2020 4/64GB Black (SM-A515FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S10+ SM-G9750 DS 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S21 Ultra 16/512GB Phantom Black (SM-G998BZKHSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy A41 4/64GB Black (SM-A415FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A705F 6/128GB Black (SM-A705FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 64GB Black (SM-G965FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 64GB Black (SM-G960FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S8 64GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A50 2019 SM-A505F 4/64GB Blue (SM-A505FZBU)</t>
+  </si>
+  <si>
+    <t>Galaxy A9 2018 6/128Gb Blue (SM-A920FZBD)</t>
+  </si>
+  <si>
+    <t>Galaxy S8+ 64GB Black (SM-G955FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Purple</t>
+  </si>
+  <si>
+    <t>Galaxy A10s 2019 SM-A107F 2/32GB Black (SM-A107FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A30s 4/64GB Green (SM-A307FZGV)</t>
+  </si>
+  <si>
+    <t>Galaxy A30s 3/32GB Black (SM-A307FZKU)</t>
+  </si>
+  <si>
+    <t>Galaxy Note 8 64GB Gold</t>
+  </si>
+  <si>
+    <t>Galaxy M115 M11 3/32 Black (SM-M115FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy A21s 3/32GB Black (SM-A217FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A7050 6/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A11 2/32GB Black (SM-A115FZKN)</t>
+  </si>
+  <si>
+    <t>Galaxy A20s 2019 A207F 3/32GB Black (SM-A207FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A7 2018 4/64GB Blue (SM-A750FZBU)</t>
+  </si>
+  <si>
+    <t>Galaxy A20e SM-A202F 3/32GB Black SM-A202FZKD</t>
+  </si>
+  <si>
+    <t>Galaxy S21 Ultra 12/256GB Phantom Black (SM-G998BZKGSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy A80 2019 A8050 8/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S20 FE 5G SM-G7810 Dual 8/256GB Cloud Navy</t>
+  </si>
+  <si>
+    <t>Galaxy S21 8/256GB Phantom Grey (SM-G991BZAGSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Grey</t>
+  </si>
+  <si>
+    <t>Galaxy S21+ 8/256GB Phantom Black (SM-G996BZKGSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy A70 2019 SM-A7050 6/128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 128GB Purple (SM-G960FZPG)</t>
+  </si>
+  <si>
+    <t>Galaxy A12 SM-A125F 4/64GB Black (SM-A125FZKVSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G986B 12/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S9+ SM-G965 DS 128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy S21 8/128GB Phantom Grey (SM-G991BZADSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy M30 SM-M305F 4/64GB Gradation Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A01 2/16GB Black (SM-A015FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy Z Fold2 12/256GB Mystic Black (SM-F916BZKQ)</t>
+  </si>
+  <si>
+    <t>Galaxy A02s 3/32GB Blue (SM-A025FZBE)</t>
+  </si>
+  <si>
+    <t>Galaxy A50s 2019 SM-A507FD 6/128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Note 8 N950F Single sim 128GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy S7 G930F 32GB (Gold)</t>
+  </si>
+  <si>
+    <t>Galaxy A01 Core 1/16GB Black (SM-A013FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A12 SM-A125F 3/32GB Black (SM-A125FZKUSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S20+ 5G SM-G9860 8/128GB Gray</t>
+  </si>
+  <si>
+    <t>Galaxy S21 Ultra 12/128GB Phantom Black (SM-G998BZKDSEK)</t>
+  </si>
+  <si>
+    <t>Galaxy S21+ 8/128GB Phantom Black (SM-G996BZKDSEK)</t>
+  </si>
+  <si>
     <t>G920F Galaxy S6 32GB (White Pearl)</t>
   </si>
   <si>
-    <t>Galaxy A01 2/16GB Black (SM-A015FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A01 Core 1/16GB Black (SM-A013FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A02s 3/32GB Blue (SM-A025FZBE)</t>
-  </si>
-  <si>
-    <t>Galaxy A10s 2019 SM-A107F 2/32GB Black (SM-A107FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A11 2/32GB Black (SM-A115FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy A12 SM-A125F 3/32GB Black (SM-A125FZKUSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy A12 SM-A125F 4/64GB Black (SM-A125FZKVSEK)</t>
+    <t>X Cover 4s G398F (SM-G398FZKD)</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 3/32GB Lavender</t>
+  </si>
+  <si>
+    <t>Galaxy S9 SM-G960 DS 128GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A50s SM-A5070 6/128GB Prism Crush Green</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 4/32GB Gold</t>
+  </si>
+  <si>
+    <t>Galaxy A6+ 3/32GB Gold (SM-A605FZDN)</t>
+  </si>
+  <si>
+    <t>Galaxy M10S M107F 3/32GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 12/256GB Black</t>
+  </si>
+  <si>
+    <t>Galaxy A8+ 2018 32GB Orchid Gray (SM-A730FZVD)</t>
+  </si>
+  <si>
+    <t>Galaxy M10 SM-M105F 3/32GB Blue</t>
+  </si>
+  <si>
+    <t>Galaxy A20e SM-A202F 3/32GB White (SM-A202FZWD)</t>
+  </si>
+  <si>
+    <t>Galaxy M10 SM-M105F 2/16GB Black (SM-M105GDAG)</t>
   </si>
   <si>
     <t>Galaxy A2 Core 2019 SM-A260 1/16GB Blue</t>
   </si>
   <si>
-    <t>Galaxy A20e SM-A202F 3/32GB Black SM-A202FZKD</t>
-  </si>
-  <si>
-    <t>Galaxy A20e SM-A202F 3/32GB White (SM-A202FZWD)</t>
-  </si>
-  <si>
-    <t>Galaxy A20s 2019 A207F 3/32GB Black (SM-A207FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A21s 3/32GB Black (SM-A217FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy A30s 3/32GB Black (SM-A307FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A30s 4/64GB Green (SM-A307FZGV)</t>
-  </si>
-  <si>
-    <t>Galaxy A31 4/128GB Black (SM-A315FZKV)</t>
-  </si>
-  <si>
-    <t>Galaxy A31 4/64GB Black (SM-A315FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A41 4/64GB Black (SM-A415FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 4/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 4/64GB Blue (SM-A505FZBU)</t>
-  </si>
-  <si>
-    <t>Galaxy A50 2019 SM-A505F 6/128GB Blue (SM-A505FZBQ)</t>
-  </si>
-  <si>
-    <t>Galaxy A50s 2019 SM-A507FD 6/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A50s SM-A5070 6/128GB Prism Crush Green</t>
-  </si>
-  <si>
-    <t>Galaxy A51 2020 4/64GB Black (SM-A515FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A51 2020 6/128GB Blue (SM-A515FZBW)</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 2020 8/128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 4/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A51 SM-A515F 6/128GB Metallic Silver (SM-A515FMSW)</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 3/32GB Gold (SM-A605FZDN)</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 3/32GB Lavender</t>
-  </si>
-  <si>
-    <t>Galaxy A6+ 4/32GB Gold</t>
-  </si>
-  <si>
-    <t>Galaxy A7 2018 4/64GB Blue (SM-A750FZBU)</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A7050 6/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A7050 6/128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy A70 2019 SM-A705F 6/128GB Black (SM-A705FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A71 2020 6/128GB Black (SM-A715FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy A71 2020 SM-A715F 8/128GB Blue</t>
-  </si>
-  <si>
     <t>Galaxy A8+ 2018 32GB Gold (SM-A730FZDD)</t>
-  </si>
-  <si>
-    <t>Galaxy A8+ 2018 32GB Orchid Gray (SM-A730FZVD)</t>
-  </si>
-  <si>
-    <t>Galaxy A80 2019 A8050 8/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy A9 2018 6/128Gb Blue (SM-A920FZBD)</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 12/256GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 12/512GB Black (SM-F900FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 5G SM-F907B 12/512GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Fold 5G SM-F907B 12/512GB Silver</t>
-  </si>
-  <si>
-    <t>Galaxy M10 SM-M105F 2/16GB Black (SM-M105GDAG)</t>
-  </si>
-  <si>
-    <t>Galaxy M10 SM-M105F 3/32GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy M10S M107F 3/32GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy M115 M11 3/32 Black (SM-M115FZKN)</t>
-  </si>
-  <si>
-    <t>Galaxy M21 4/64GB Black (SM-M215FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy M30 SM-M305F 4/64GB Gradation Blue</t>
-  </si>
-  <si>
-    <t>Galaxy M31 6/128GB Black (SM-M315FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy M31s 6/128GB Blue (SM-M317FZBN)</t>
-  </si>
-  <si>
-    <t>Galaxy M51 6/128GB Black (SM-M515FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N9700 8/256GB Black (SM-N9700ZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N9700 8/256GB White</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10 SM-N970F 8/256GB Black (SM-N970FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N9750 12/256GB Aura Glow</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N975F 12/256GB Black (SM-N975FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note 10+ SM-N975F 12/512GB Aura Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 8 64GB Gold</t>
-  </si>
-  <si>
-    <t>Galaxy Note 8 N950F Single sim 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 6/128GB Metallic Copper</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Lavender Purple</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Metallic Copper</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Midnight Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note 9 N960 8/512GB Ocean Blue (SM-N960FZBH)</t>
-  </si>
-  <si>
-    <t>Galaxy Note10 Lite SM-N770F Dual 6/128GB Black (SM-N770FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Note10 Lite SM-N770F Dual 8/128GB Black (SM-N770FZKU)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 5G N9810 8/256GB Mystic Gray</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 5G SM-N981B 8/256GB Mystic Bronze</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 SM-N980F 8/256GB Mystic Green (SM-N980FZGG)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N9860 12/256GB Mystic Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N986B 12/256GB Mystic Black</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra 5G SM-N986B 12/512GB Mystic Black (SM-N986BZKH)</t>
-  </si>
-  <si>
-    <t>Galaxy Note20 Ultra SM-N985F 8/256GB Mystic Bronze (SM-N985FZNG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 Lite SM-G770 6/128GB Black (SM-G770FZKG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 Lite SM-G770 8/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G973 DS 128GB Green (SM-G973FZGD)</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G973 DS 512GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10 SM-G9730 DS 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 128GB Black (SM-G975FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 1TB Black (SM-G975FCKH)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 1TB Ceramic White (SM-G975FCWH)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 512GB Black (SM-G975FCKG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G975 DS 512GB White (SM-G975FCWG)</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G9750 DS 128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10+ SM-G9750 DS 1TB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S10e SM-G970 DS 128GB Black (SM-G970FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 5G SM-G9810 12/128GB Cloud Pink</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G7810 8/128GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G7810 Dual 8/256GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE 5G SM-G781B 6/128GB Cloud Red</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 6/128GB Blue (SM-G780FZBD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 6/256GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 8/128GB Cloud Navy</t>
-  </si>
-  <si>
-    <t>Galaxy S20 FE SM-G780F 8/256GB Blue (SM-G780FZBH)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 SM-G980 8/128GB Grey (SM-G980FZAD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra 5G SM-G9880 12/256GB Cosmic Gray</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra 5G SM-G988B 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20 Ultra SM-G988 128GB Grey (SM-G988BZAD)</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G9860 12/128GB Cosmic Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G9860 8/128GB Gray</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G986B 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ 5G SM-G986F-DS 12/128GB Black</t>
-  </si>
-  <si>
-    <t>Galaxy S20+ LTE SM-G985 Dual 8/128GB Black (SM-G985FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 8/128GB Phantom Grey (SM-G991BZADSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 8/256GB Phantom Grey (SM-G991BZAGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 12/128GB Phantom Black (SM-G998BZKDSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 12/256GB Phantom Black (SM-G998BZKGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21 Ultra 16/512GB Phantom Black (SM-G998BZKHSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21+ 8/128GB Phantom Black (SM-G996BZKDSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S21+ 8/256GB Phantom Black (SM-G996BZKGSEK)</t>
-  </si>
-  <si>
-    <t>Galaxy S7 G930F 32GB (Gold)</t>
-  </si>
-  <si>
-    <t>Galaxy S8 64GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S8+ 64GB Black (SM-G955FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 128GB Purple (SM-G960FZPG)</t>
-  </si>
-  <si>
-    <t>Galaxy S9 SM-G960 DS 64GB Black (SM-G960FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Blue</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Grey</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 128GB Purple</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 256GB Black (SM-G965FZKH)</t>
-  </si>
-  <si>
-    <t>Galaxy S9+ SM-G965 DS 64GB Black (SM-G965FZKD)</t>
-  </si>
-  <si>
-    <t>Galaxy Z Flip 5G SM-F707 8/256GB Mystic Bronze</t>
-  </si>
-  <si>
-    <t>Galaxy Z Flip SM-F700 8/256GB Mirror Purple (SM-F700FZPD)</t>
-  </si>
-  <si>
-    <t>Galaxy Z Fold2 12/256GB Mystic Black (SM-F916BZKQ)</t>
-  </si>
-  <si>
-    <t>X Cover 4s G398F (SM-G398FZKD)</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6247708070253934</v>
+        <v>0.5902187588827781</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.5768795316642392</v>
+        <v>0.559635252425191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -812,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5537761376072359</v>
+        <v>0.5441938475830368</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.5493866325990544</v>
+        <v>0.5393139186898285</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.5335370087746631</v>
+        <v>0.5177472688390929</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -836,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.5107603321198807</v>
+        <v>0.493434756535999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -844,191 +844,191 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.47490287284711</v>
+        <v>0.490264833582969</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.4468401292371561</v>
+        <v>0.4597875587917346</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0.4382062390196205</v>
+        <v>0.4338001602972597</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.4248704937264711</v>
+        <v>0.4235660813005275</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.4175789861230541</v>
+        <v>0.4121695151595407</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>0.41637027167701</v>
+        <v>0.4112534255428102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>0.4138529200400659</v>
+        <v>0.4081389187850165</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>0.4103462796506883</v>
+        <v>0.4041356388732354</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.4098634662013744</v>
+        <v>0.4013348060112373</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>0.4080697519916658</v>
+        <v>0.3947724904308655</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>0.4063558542433655</v>
+        <v>0.3925831522547821</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>0.4030190204544001</v>
+        <v>0.3876583041488959</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0.4025170633473606</v>
+        <v>0.3865784965985691</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>0.399427166077396</v>
+        <v>0.3853169517690671</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>0.3970343610233212</v>
+        <v>0.3776670641790456</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>0.3924081520669085</v>
+        <v>0.3775117366980582</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>0.3890906561485688</v>
+        <v>0.3770778986595569</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>0.387352740140406</v>
+        <v>0.3730014615951853</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>0.3862468321207438</v>
+        <v>0.3723084990585854</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>0.3798938724977221</v>
+        <v>0.3720114012067498</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0.3767925664401743</v>
+        <v>0.3701681967601526</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>0.3755284944029632</v>
+        <v>0.3678324739345723</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>0.3728693769131784</v>
+        <v>0.3613838269881968</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>0.3655369154053562</v>
+        <v>0.3600566813405542</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.3596047349098142</v>
+        <v>0.3587645482799519</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>0.3546977980763785</v>
+        <v>0.3584719215886407</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1052,151 +1052,151 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0.3495020033663968</v>
+        <v>0.3583610479121003</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>0.3460908837447032</v>
+        <v>0.3555464062376814</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>0.3457100659410959</v>
+        <v>0.355348666931791</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>0.3452622567218511</v>
+        <v>0.3545563458492459</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>0.3424807838701978</v>
+        <v>0.3544780750536681</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>0.3421541734945267</v>
+        <v>0.3543948786857297</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>0.341977291695394</v>
+        <v>0.3524578250222982</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>0.3416183951001234</v>
+        <v>0.3523654398991752</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>0.3392077263204988</v>
+        <v>0.3508383918289182</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>0.3383593115291578</v>
+        <v>0.3498483314404827</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46">
-        <v>0.3347715478056821</v>
+        <v>0.3480533012329068</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>0.3333584923092286</v>
+        <v>0.3461903692873276</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48">
-        <v>0.3322851546049921</v>
+        <v>0.3460181677803088</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49">
-        <v>0.3315437137803378</v>
+        <v>0.3425526397564199</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50">
-        <v>0.3309643659357815</v>
+        <v>0.3398969652302185</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>0.3301854180330327</v>
+        <v>0.3398372625333099</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>0.3300334068134588</v>
+        <v>0.3370629401254603</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>0.3284908575831841</v>
+        <v>0.3354670966137054</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>0.3265011313971142</v>
+        <v>0.3353963442459635</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>47</v>
       </c>
       <c r="B55">
-        <v>0.3253780002872614</v>
+        <v>0.3336855444588486</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>48</v>
       </c>
       <c r="B56">
-        <v>0.3231510667081411</v>
+        <v>0.3308547573905073</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>49</v>
       </c>
       <c r="B57">
-        <v>0.3222003040988712</v>
+        <v>0.3296762496070884</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>50</v>
       </c>
       <c r="B58">
-        <v>0.3208719339625771</v>
+        <v>0.3267789345835888</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>51</v>
       </c>
       <c r="B59">
-        <v>0.3190405824619637</v>
+        <v>0.3225208669037394</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>52</v>
       </c>
       <c r="B60">
-        <v>0.3148628182241526</v>
+        <v>0.3165267369715348</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>53</v>
       </c>
       <c r="B61">
-        <v>0.3139749459833851</v>
+        <v>0.3154904420848867</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>54</v>
       </c>
       <c r="B62">
-        <v>0.3136092042315481</v>
+        <v>0.3139284396783266</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.3129472760117364</v>
+        <v>0.312137050460818</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>56</v>
       </c>
       <c r="B64">
-        <v>0.3128485835493637</v>
+        <v>0.3111057186033804</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>57</v>
       </c>
       <c r="B65">
-        <v>0.3105548971453536</v>
+        <v>0.3061140281233104</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="B66">
-        <v>0.3100638132929583</v>
+        <v>0.3050436518608978</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>59</v>
       </c>
       <c r="B67">
-        <v>0.3088434427825012</v>
+        <v>0.3017331560403751</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>60</v>
       </c>
       <c r="B68">
-        <v>0.3079449006199922</v>
+        <v>0.3016467274620832</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>61</v>
       </c>
       <c r="B69">
-        <v>0.307681495351984</v>
+        <v>0.2993198692772701</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>62</v>
       </c>
       <c r="B70">
-        <v>0.3043411466700681</v>
+        <v>0.2992386805129479</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1332,71 +1332,71 @@
         <v>63</v>
       </c>
       <c r="B71">
-        <v>0.2952645509945395</v>
+        <v>0.2974415791331887</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B72">
-        <v>0.2926157753548356</v>
+        <v>0.2953741923452908</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B73">
-        <v>0.2849119219527519</v>
+        <v>0.2951398336452652</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74">
-        <v>0.2796801260467382</v>
+        <v>0.2950233278355354</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B75">
-        <v>0.2770400292103264</v>
+        <v>0.2943199393379358</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B76">
-        <v>0.2725770253361358</v>
+        <v>0.2925490105165888</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B77">
-        <v>0.2710595746003512</v>
+        <v>0.2905852098543158</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B78">
-        <v>0.2695815618519329</v>
+        <v>0.2905047493357651</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B79">
-        <v>0.269275221395986</v>
+        <v>0.2903651964346635</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>69</v>
       </c>
       <c r="B80">
-        <v>0.2683485754189833</v>
+        <v>0.2902847359161128</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>70</v>
       </c>
       <c r="B81">
-        <v>0.2677475633890389</v>
+        <v>0.2853899432714854</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>71</v>
       </c>
       <c r="B82">
-        <v>0.2675109450347792</v>
+        <v>0.2853026109825023</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>72</v>
       </c>
       <c r="B83">
-        <v>0.2654818559834363</v>
+        <v>0.2781359656610482</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>73</v>
       </c>
       <c r="B84">
-        <v>0.2643030683023601</v>
+        <v>0.2765653821522038</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>74</v>
       </c>
       <c r="B85">
-        <v>0.2638760348126586</v>
+        <v>0.2748489254030996</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>75</v>
       </c>
       <c r="B86">
-        <v>0.2608223226521623</v>
+        <v>0.2581532528782874</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>76</v>
       </c>
       <c r="B87">
-        <v>0.2597279965102768</v>
+        <v>0.2564884482699691</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>77</v>
       </c>
       <c r="B88">
-        <v>0.2578293478258226</v>
+        <v>0.2534933230585018</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>78</v>
       </c>
       <c r="B89">
-        <v>0.2575117450961197</v>
+        <v>0.250296677951569</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>79</v>
       </c>
       <c r="B90">
-        <v>0.2560603357978146</v>
+        <v>0.2441068630098523</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>80</v>
       </c>
       <c r="B91">
-        <v>0.2544223963011411</v>
+        <v>0.2431849539215184</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>81</v>
       </c>
       <c r="B92">
-        <v>0.2531131155298723</v>
+        <v>0.2407741554299362</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>82</v>
       </c>
       <c r="B93">
-        <v>0.2519358925803005</v>
+        <v>0.2349081801269381</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>83</v>
       </c>
       <c r="B94">
-        <v>0.2512939323706548</v>
+        <v>0.2335341313940127</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>84</v>
       </c>
       <c r="B95">
-        <v>0.2482701060977667</v>
+        <v>0.2335049406356442</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>85</v>
       </c>
       <c r="B96">
-        <v>0.2469356242529801</v>
+        <v>0.2322500358203557</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>86</v>
       </c>
       <c r="B97">
-        <v>0.2459333471699129</v>
+        <v>0.2294369033760497</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>87</v>
       </c>
       <c r="B98">
-        <v>0.2443257641475619</v>
+        <v>0.2286351925371466</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1556,79 +1556,79 @@
         <v>88</v>
       </c>
       <c r="B99">
-        <v>0.2394809139414439</v>
+        <v>0.2285733062931478</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100">
-        <v>0.2357211027787686</v>
+        <v>0.2284301256557754</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101">
-        <v>0.2305219583970771</v>
+        <v>0.2272222825797898</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102">
-        <v>0.2234554571392103</v>
+        <v>0.2188283736487303</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103">
-        <v>0.2195410020769171</v>
+        <v>0.2139288873393458</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B104">
-        <v>0.2091097111856526</v>
+        <v>0.2132956788871853</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B105">
-        <v>0.200833666759979</v>
+        <v>0.212964537798843</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B106">
-        <v>0.1920879271837862</v>
+        <v>0.2114327569178667</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B107">
-        <v>0.1917150717379883</v>
+        <v>0.2097396735868403</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B108">
-        <v>0.1840948180405132</v>
+        <v>0.2042550900476082</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1636,278 +1636,566 @@
         <v>97</v>
       </c>
       <c r="B109">
-        <v>0.17693527117757</v>
+        <v>0.2028250028198681</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B110">
-        <v>0.1733713685831395</v>
+        <v>0.2026018481205661</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B111">
-        <v>0.1692737093336073</v>
+        <v>0.2011717608928259</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B112">
-        <v>0.1614587230283149</v>
+        <v>0.2008686914994285</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B113">
-        <v>0.1572741978608334</v>
+        <v>0.1997483252030575</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B114">
-        <v>0.1522396907175108</v>
+        <v>0.199592451523025</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B115">
-        <v>0.1458649422670409</v>
+        <v>0.1993663016561287</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B116">
-        <v>0.1398361651044246</v>
+        <v>0.1988647612661261</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B117">
-        <v>0.1360739960978864</v>
+        <v>0.1977018318704278</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B118">
-        <v>0.1344643463461396</v>
+        <v>0.1974543530628707</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B119">
-        <v>0.1287115149212221</v>
+        <v>0.1972115193390839</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B120">
-        <v>0.1251251562393527</v>
+        <v>0.1960242658351306</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B121">
-        <v>0.1078555743815575</v>
+        <v>0.1954546921272808</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B122">
-        <v>0.10778662220672</v>
+        <v>0.1933632458920689</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B123">
-        <v>0.106865513993122</v>
+        <v>0.1933167357019264</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B124">
-        <v>0.1067781365714479</v>
+        <v>0.1920640242813886</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B125">
-        <v>0.1042262633806354</v>
+        <v>0.1909436226626007</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B126">
-        <v>0.1031479151471844</v>
+        <v>0.1891316483011362</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B127">
-        <v>0.1018430842510211</v>
+        <v>0.1883289143654521</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B128">
-        <v>0.09882677961224851</v>
+        <v>0.1863621942615356</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B129">
-        <v>0.09508655147815884</v>
+        <v>0.1846986929411886</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B130">
-        <v>0.09452345025519164</v>
+        <v>0.1846213731982633</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B131">
-        <v>0.09353338986675615</v>
+        <v>0.1839831698458347</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B132">
-        <v>0.09245453210867298</v>
+        <v>0.1836313128098278</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B133">
-        <v>0.0859692376044386</v>
+        <v>0.1827369164714444</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B134">
-        <v>0.0840888600346244</v>
+        <v>0.1820513700055511</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B135">
-        <v>0.08133869228897024</v>
+        <v>0.1815583216595056</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B136">
-        <v>0.08076105444881253</v>
+        <v>0.1803529484215712</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B137">
-        <v>0.07977099406037703</v>
+        <v>0.1795337552480908</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B138">
-        <v>0.07876798521350334</v>
+        <v>0.1785224771217748</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B139">
-        <v>0.07858852454331608</v>
+        <v>0.1780919010678849</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B140">
-        <v>0.07496735105796658</v>
+        <v>0.1770480465566328</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B141">
-        <v>0.07449795912227658</v>
+        <v>0.1760579861681973</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B142">
-        <v>0.07405641198431791</v>
+        <v>0.175023480145218</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143">
+        <v>0.1747822489876852</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>112</v>
+      </c>
+      <c r="B144">
+        <v>0.1743704184121928</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>107</v>
+      </c>
+      <c r="B145">
+        <v>0.1740334197567825</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>114</v>
+      </c>
+      <c r="B146">
+        <v>0.1717658162872555</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>112</v>
+      </c>
+      <c r="B147">
+        <v>0.1706301902781031</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>115</v>
+      </c>
+      <c r="B148">
+        <v>0.1705699953179241</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149">
+        <v>0.1685531970151082</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150">
+        <v>0.1619654763439514</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151">
+        <v>0.1552679324697938</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>118</v>
+      </c>
+      <c r="B152">
+        <v>0.1542778720813583</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153">
+        <v>0.1527820158946498</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B154">
+        <v>0.152626168002362</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155">
+        <v>0.1516361076139265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156">
+        <v>0.14085495078155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>121</v>
+      </c>
+      <c r="B157">
+        <v>0.1205781994607732</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>122</v>
+      </c>
+      <c r="B158">
+        <v>0.1105321158461853</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159">
+        <v>0.1042262633806354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>124</v>
+      </c>
+      <c r="B160">
+        <v>0.1023667285153319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161">
+        <v>0.1014443674337534</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>124</v>
+      </c>
+      <c r="B162">
+        <v>0.1013766681268964</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>124</v>
+      </c>
+      <c r="B163">
+        <v>0.1004543070453179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>125</v>
+      </c>
+      <c r="B164">
+        <v>0.09511365065029509</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>126</v>
+      </c>
+      <c r="B165">
+        <v>0.08777522515333055</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>127</v>
+      </c>
+      <c r="B166">
+        <v>0.0840888600346244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>127</v>
+      </c>
+      <c r="B167">
+        <v>0.0840888600346244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>127</v>
+      </c>
+      <c r="B168">
+        <v>0.0840888600346244</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>127</v>
+      </c>
+      <c r="B169">
+        <v>0.08133869228897024</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>127</v>
+      </c>
+      <c r="B170">
+        <v>0.08133869228897024</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>127</v>
+      </c>
+      <c r="B171">
+        <v>0.08133869228897024</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>127</v>
+      </c>
+      <c r="B172">
+        <v>0.07858852454331608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>127</v>
+      </c>
+      <c r="B173">
+        <v>0.07858852454331608</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>127</v>
+      </c>
+      <c r="B174">
+        <v>0.07858852454331608</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>128</v>
+      </c>
+      <c r="B175">
+        <v>0.07496735105796658</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B176">
+        <v>0.07496735105796658</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>129</v>
       </c>
-      <c r="B143">
+      <c r="B177">
+        <v>0.07405641198431791</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178">
+        <v>0.07397729066953108</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>128</v>
+      </c>
+      <c r="B179">
         <v>0.07397729066953108</v>
       </c>
     </row>
